--- a/data/pca/factorExposure/factorExposure_2011-05-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +741,60 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.005579819852679672</v>
+        <v>0.01308587881837497</v>
       </c>
       <c r="C2">
-        <v>0.00640490961173092</v>
+        <v>-0.004788570117966072</v>
       </c>
       <c r="D2">
-        <v>0.04923849495712893</v>
+        <v>-0.02763785953395796</v>
       </c>
       <c r="E2">
-        <v>0.002385458863693273</v>
+        <v>-0.01727435661910169</v>
       </c>
       <c r="F2">
-        <v>-0.01004719913520028</v>
+        <v>0.0006537534146449147</v>
       </c>
       <c r="G2">
-        <v>-0.03338756164013124</v>
+        <v>0.01366352017797575</v>
       </c>
       <c r="H2">
-        <v>-0.008828806017948601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.02158275034052339</v>
+      </c>
+      <c r="I2">
+        <v>-0.0391153890633736</v>
+      </c>
+      <c r="J2">
+        <v>0.02312048479184755</v>
+      </c>
+      <c r="K2">
+        <v>0.02920743416508344</v>
+      </c>
+      <c r="L2">
+        <v>-0.0243507804691232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +817,60 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.08739607477687897</v>
+        <v>0.1102230964609705</v>
       </c>
       <c r="C4">
-        <v>-0.04913280283511966</v>
+        <v>0.07484128087056495</v>
       </c>
       <c r="D4">
-        <v>0.03197491605971892</v>
+        <v>-0.02356610419805646</v>
       </c>
       <c r="E4">
-        <v>-0.04022705707560756</v>
+        <v>-0.01921473838008276</v>
       </c>
       <c r="F4">
-        <v>-0.02581220003123953</v>
+        <v>0.1557619732339904</v>
       </c>
       <c r="G4">
-        <v>-0.02781269493443206</v>
+        <v>-0.01135794552395057</v>
       </c>
       <c r="H4">
-        <v>0.01871407184307845</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.01275957719773387</v>
+      </c>
+      <c r="I4">
+        <v>0.02424448587795545</v>
+      </c>
+      <c r="J4">
+        <v>-0.02610051371436216</v>
+      </c>
+      <c r="K4">
+        <v>-0.09731081103941999</v>
+      </c>
+      <c r="L4">
+        <v>-0.01754344709097098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +893,440 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1318356254221267</v>
+        <v>0.1327592599452838</v>
       </c>
       <c r="C6">
-        <v>-0.03954270324202307</v>
+        <v>0.05192803808532014</v>
       </c>
       <c r="D6">
-        <v>0.05116803911773855</v>
+        <v>-0.003147067828411239</v>
       </c>
       <c r="E6">
-        <v>-0.05822282267288934</v>
+        <v>-0.007809948530315874</v>
       </c>
       <c r="F6">
-        <v>0.1088952677216326</v>
+        <v>-0.009710560651805891</v>
       </c>
       <c r="G6">
-        <v>0.1100203368033661</v>
+        <v>-0.07372088101158675</v>
       </c>
       <c r="H6">
-        <v>-0.03203438994577852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.05611645479422355</v>
+      </c>
+      <c r="I6">
+        <v>0.274726413412127</v>
+      </c>
+      <c r="J6">
+        <v>-0.3158707459730834</v>
+      </c>
+      <c r="K6">
+        <v>0.04234705347410041</v>
+      </c>
+      <c r="L6">
+        <v>-0.2177225142120929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.07989870373372464</v>
+        <v>0.07247995500226087</v>
       </c>
       <c r="C7">
-        <v>-0.04258724527448738</v>
+        <v>0.05956095298330694</v>
       </c>
       <c r="D7">
-        <v>0.03866183830242449</v>
+        <v>-0.02889904919425297</v>
       </c>
       <c r="E7">
-        <v>-0.04364054898663302</v>
+        <v>-0.01885264406786203</v>
       </c>
       <c r="F7">
-        <v>0.04050531918287546</v>
+        <v>0.03250065054747708</v>
       </c>
       <c r="G7">
-        <v>0.004580188628885418</v>
+        <v>-0.005365800216814765</v>
       </c>
       <c r="H7">
-        <v>-0.0238686899284847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.01767153214507064</v>
+      </c>
+      <c r="I7">
+        <v>0.009163916181008126</v>
+      </c>
+      <c r="J7">
+        <v>0.04297928402640242</v>
+      </c>
+      <c r="K7">
+        <v>-0.1093516613060407</v>
+      </c>
+      <c r="L7">
+        <v>0.03962846835106357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.03789548744391677</v>
+        <v>0.04285091243012417</v>
       </c>
       <c r="C8">
-        <v>-0.003236975218182053</v>
+        <v>0.01934317716308394</v>
       </c>
       <c r="D8">
-        <v>0.05612556866797123</v>
+        <v>-0.006111593349850888</v>
       </c>
       <c r="E8">
-        <v>-0.06165029962433325</v>
+        <v>-0.01720059566518956</v>
       </c>
       <c r="F8">
-        <v>-0.0338526151042232</v>
+        <v>0.1387546009378918</v>
       </c>
       <c r="G8">
-        <v>-0.08598067471898597</v>
+        <v>0.01409741898131746</v>
       </c>
       <c r="H8">
-        <v>-0.08575545289071856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.0513728412823664</v>
+      </c>
+      <c r="I8">
+        <v>0.07752633012256034</v>
+      </c>
+      <c r="J8">
+        <v>0.001443532193905811</v>
+      </c>
+      <c r="K8">
+        <v>-0.08255030923255997</v>
+      </c>
+      <c r="L8">
+        <v>-0.04908643111161481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.0797937913546556</v>
+        <v>0.08472212221854053</v>
       </c>
       <c r="C9">
-        <v>-0.04797393063997063</v>
+        <v>0.06430634229818748</v>
       </c>
       <c r="D9">
-        <v>0.03340266901850148</v>
+        <v>-0.02427534704408201</v>
       </c>
       <c r="E9">
-        <v>-0.02958889213914365</v>
+        <v>-0.002175659929571488</v>
       </c>
       <c r="F9">
-        <v>-0.01396421018277558</v>
+        <v>0.137378226429571</v>
       </c>
       <c r="G9">
-        <v>-0.03370250688099618</v>
+        <v>-0.006905561348760325</v>
       </c>
       <c r="H9">
-        <v>-0.03010790238648335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.00902481680801435</v>
+      </c>
+      <c r="I9">
+        <v>0.02011756764790745</v>
+      </c>
+      <c r="J9">
+        <v>-0.003378596962437816</v>
+      </c>
+      <c r="K9">
+        <v>-0.06717996141473818</v>
+      </c>
+      <c r="L9">
+        <v>-0.02427168855640936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.04585150355520271</v>
+        <v>0.1041764569471694</v>
       </c>
       <c r="C10">
-        <v>0.140669718830166</v>
+        <v>-0.1659776144453993</v>
       </c>
       <c r="D10">
-        <v>0.08277675270321333</v>
+        <v>-0.05361776963607342</v>
       </c>
       <c r="E10">
-        <v>-0.03162821518087973</v>
+        <v>-0.03237170230287947</v>
       </c>
       <c r="F10">
-        <v>0.04710131215131379</v>
+        <v>-0.01065906356503074</v>
       </c>
       <c r="G10">
-        <v>0.008728211917311712</v>
+        <v>-0.009125523409912194</v>
       </c>
       <c r="H10">
-        <v>-0.002786252223505096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.03445778950908935</v>
+      </c>
+      <c r="I10">
+        <v>0.004309387128861759</v>
+      </c>
+      <c r="J10">
+        <v>-0.02420719020893342</v>
+      </c>
+      <c r="K10">
+        <v>0.01662675821245915</v>
+      </c>
+      <c r="L10">
+        <v>0.04929200232084936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.06955631914077562</v>
+        <v>0.07191212065553171</v>
       </c>
       <c r="C11">
-        <v>-0.06714584966534043</v>
+        <v>0.07167251339544088</v>
       </c>
       <c r="D11">
-        <v>0.006405154478515374</v>
+        <v>-0.006672898442444689</v>
       </c>
       <c r="E11">
-        <v>0.007825933297867314</v>
+        <v>0.02315875241319496</v>
       </c>
       <c r="F11">
-        <v>0.002397383345139598</v>
+        <v>0.1332308395390163</v>
       </c>
       <c r="G11">
-        <v>-0.1183710129416745</v>
+        <v>0.01590293906802669</v>
       </c>
       <c r="H11">
-        <v>-0.06251983214169411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.06042456449296661</v>
+      </c>
+      <c r="I11">
+        <v>-0.03466970444187006</v>
+      </c>
+      <c r="J11">
+        <v>0.08478156396127595</v>
+      </c>
+      <c r="K11">
+        <v>0.02785869081099948</v>
+      </c>
+      <c r="L11">
+        <v>-0.01854660640114547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06260949458519861</v>
+        <v>0.06708715806746091</v>
       </c>
       <c r="C12">
-        <v>-0.03667563064400298</v>
+        <v>0.06305127041843353</v>
       </c>
       <c r="D12">
-        <v>-0.007199255863947623</v>
+        <v>-0.01358207931346549</v>
       </c>
       <c r="E12">
-        <v>-0.03577546831375457</v>
+        <v>0.02145164656373631</v>
       </c>
       <c r="F12">
-        <v>0.006695837440356218</v>
+        <v>0.1394431153204223</v>
       </c>
       <c r="G12">
-        <v>-0.09887838275595096</v>
+        <v>0.02802473550389405</v>
       </c>
       <c r="H12">
-        <v>-0.08293868683290469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.05956945010644746</v>
+      </c>
+      <c r="I12">
+        <v>0.006956491856359622</v>
+      </c>
+      <c r="J12">
+        <v>0.08920681052162256</v>
+      </c>
+      <c r="K12">
+        <v>0.003981250806453531</v>
+      </c>
+      <c r="L12">
+        <v>-0.04536720532455874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.05494732266563364</v>
+        <v>0.04433789380335477</v>
       </c>
       <c r="C13">
-        <v>-0.002295167725155267</v>
+        <v>0.03126421468002413</v>
       </c>
       <c r="D13">
-        <v>0.001272023830936825</v>
+        <v>-0.009610489124292639</v>
       </c>
       <c r="E13">
-        <v>-0.01604587624649969</v>
+        <v>-0.02383180324465937</v>
       </c>
       <c r="F13">
-        <v>-0.04876781045007138</v>
+        <v>0.04793823811951205</v>
       </c>
       <c r="G13">
-        <v>-0.007330710593062006</v>
+        <v>-0.0005266278797871854</v>
       </c>
       <c r="H13">
-        <v>-0.0764963271449401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.01683757114544052</v>
+      </c>
+      <c r="I13">
+        <v>0.01224331439609335</v>
+      </c>
+      <c r="J13">
+        <v>0.007889771435111766</v>
+      </c>
+      <c r="K13">
+        <v>-0.04515558025888666</v>
+      </c>
+      <c r="L13">
+        <v>0.01516295731468704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.05358042709365918</v>
+        <v>0.03734236934255693</v>
       </c>
       <c r="C14">
-        <v>-0.009436253066022679</v>
+        <v>0.02172592601153027</v>
       </c>
       <c r="D14">
-        <v>0.01877152776516958</v>
+        <v>-0.01059532361704724</v>
       </c>
       <c r="E14">
-        <v>-0.03538468740783884</v>
+        <v>0.01154230153517351</v>
       </c>
       <c r="F14">
-        <v>0.001998215951114463</v>
+        <v>0.06244479124210228</v>
       </c>
       <c r="G14">
-        <v>-0.004834606771050851</v>
+        <v>0.005714329747197383</v>
       </c>
       <c r="H14">
-        <v>-0.07707054299475898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.02988787729778991</v>
+      </c>
+      <c r="I14">
+        <v>0.003398028789390951</v>
+      </c>
+      <c r="J14">
+        <v>-0.02852934844979712</v>
+      </c>
+      <c r="K14">
+        <v>-0.1082046625049525</v>
+      </c>
+      <c r="L14">
+        <v>-0.02423101444959552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.03767175321741879</v>
+        <v>0.02482704430656366</v>
       </c>
       <c r="C15">
-        <v>0.008267660887129331</v>
+        <v>0.01422014598697057</v>
       </c>
       <c r="D15">
-        <v>0.006830266119370433</v>
+        <v>0.005708734211619045</v>
       </c>
       <c r="E15">
-        <v>-0.01983419669296018</v>
+        <v>-0.05054980246006918</v>
       </c>
       <c r="F15">
-        <v>-0.01624083986035207</v>
+        <v>0.008288330085222385</v>
       </c>
       <c r="G15">
-        <v>0.002705216025157758</v>
+        <v>-0.03250364452979114</v>
       </c>
       <c r="H15">
-        <v>-0.01127286862368532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.0006913177396248878</v>
+      </c>
+      <c r="I15">
+        <v>-0.00497167553239082</v>
+      </c>
+      <c r="J15">
+        <v>-0.04892940498444439</v>
+      </c>
+      <c r="K15">
+        <v>-0.06609138589592954</v>
+      </c>
+      <c r="L15">
+        <v>0.01805882556450757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.0700069938271454</v>
+        <v>0.07643778790167462</v>
       </c>
       <c r="C16">
-        <v>-0.07317238611544701</v>
+        <v>0.07551603891961972</v>
       </c>
       <c r="D16">
-        <v>0.01547723706724242</v>
+        <v>-0.003207201800103323</v>
       </c>
       <c r="E16">
-        <v>-0.0280755409768587</v>
+        <v>0.01821995735994639</v>
       </c>
       <c r="F16">
-        <v>-0.02833148086472319</v>
+        <v>0.1281544549713881</v>
       </c>
       <c r="G16">
-        <v>-0.078973994247348</v>
+        <v>0.02410442175619213</v>
       </c>
       <c r="H16">
-        <v>-0.06719554197065697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.05539367824160377</v>
+      </c>
+      <c r="I16">
+        <v>-0.03166345083367429</v>
+      </c>
+      <c r="J16">
+        <v>0.09869644137045296</v>
+      </c>
+      <c r="K16">
+        <v>-0.002702612274633881</v>
+      </c>
+      <c r="L16">
+        <v>-0.03585011299248057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1349,22 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1387,22 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1425,288 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.04994452342126306</v>
+        <v>0.0438356152604312</v>
       </c>
       <c r="C20">
-        <v>-0.03488199751384306</v>
+        <v>0.03227458185899524</v>
       </c>
       <c r="D20">
-        <v>0.007893660462828852</v>
+        <v>-0.01299726320802154</v>
       </c>
       <c r="E20">
-        <v>-0.01320260943719126</v>
+        <v>-0.02513833874987206</v>
       </c>
       <c r="F20">
-        <v>-0.008647448660325463</v>
+        <v>0.06309429019360989</v>
       </c>
       <c r="G20">
-        <v>-0.03218770453228028</v>
+        <v>0.02191016416830531</v>
       </c>
       <c r="H20">
-        <v>-0.05369826526287026</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.0008097828064613005</v>
+      </c>
+      <c r="I20">
+        <v>0.02820574569271705</v>
+      </c>
+      <c r="J20">
+        <v>-0.006349201907906</v>
+      </c>
+      <c r="K20">
+        <v>-0.07436023143650257</v>
+      </c>
+      <c r="L20">
+        <v>-0.004820067647052422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.02823416839314731</v>
+        <v>0.02447920689300826</v>
       </c>
       <c r="C21">
-        <v>-0.03444514889553484</v>
+        <v>0.02361727945675275</v>
       </c>
       <c r="D21">
-        <v>-0.003335729928372431</v>
+        <v>-0.001248012354823851</v>
       </c>
       <c r="E21">
-        <v>-0.05278806803659466</v>
+        <v>-0.006655800246380113</v>
       </c>
       <c r="F21">
-        <v>0.08574922676078861</v>
+        <v>0.0662959331919782</v>
       </c>
       <c r="G21">
-        <v>0.02744868334313653</v>
+        <v>-0.03797011651770368</v>
       </c>
       <c r="H21">
-        <v>0.08225236325148151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.09196167412283043</v>
+      </c>
+      <c r="I21">
+        <v>0.05520860175196227</v>
+      </c>
+      <c r="J21">
+        <v>-0.05415356721723006</v>
+      </c>
+      <c r="K21">
+        <v>-0.09949968673833738</v>
+      </c>
+      <c r="L21">
+        <v>0.09142144595850955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.02563578735281241</v>
+        <v>0.04638625125428285</v>
       </c>
       <c r="C22">
-        <v>-0.04315246061684985</v>
+        <v>0.03060035949436236</v>
       </c>
       <c r="D22">
-        <v>-0.04344904988814527</v>
+        <v>0.09734597542177689</v>
       </c>
       <c r="E22">
-        <v>-0.5199925740077306</v>
+        <v>-0.6515365848016075</v>
       </c>
       <c r="F22">
-        <v>-0.2518658601495808</v>
+        <v>-0.06807259532007998</v>
       </c>
       <c r="G22">
-        <v>0.142938549069796</v>
+        <v>0.1401471339354589</v>
       </c>
       <c r="H22">
-        <v>0.2778592033447781</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.07139382303442973</v>
+      </c>
+      <c r="I22">
+        <v>-7.669545759879387e-05</v>
+      </c>
+      <c r="J22">
+        <v>0.02887671564051161</v>
+      </c>
+      <c r="K22">
+        <v>0.04643393651385523</v>
+      </c>
+      <c r="L22">
+        <v>0.001995695599944387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.02547345935860609</v>
+        <v>0.04684069813757823</v>
       </c>
       <c r="C23">
-        <v>-0.04286111201223577</v>
+        <v>0.03131993491283022</v>
       </c>
       <c r="D23">
-        <v>-0.04237518246089324</v>
+        <v>0.09764857156537159</v>
       </c>
       <c r="E23">
-        <v>-0.5191719389967883</v>
+        <v>-0.6533073873481003</v>
       </c>
       <c r="F23">
-        <v>-0.2525901635455062</v>
+        <v>-0.0653828058918501</v>
       </c>
       <c r="G23">
-        <v>0.1438443180971161</v>
+        <v>0.140982686490766</v>
       </c>
       <c r="H23">
-        <v>0.2770500621308855</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.06841525247681583</v>
+      </c>
+      <c r="I23">
+        <v>0.0007615028513142631</v>
+      </c>
+      <c r="J23">
+        <v>0.02736009215272987</v>
+      </c>
+      <c r="K23">
+        <v>0.04855415294761016</v>
+      </c>
+      <c r="L23">
+        <v>-0.0003522487394357471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.07914184715838961</v>
+        <v>0.08010389826652421</v>
       </c>
       <c r="C24">
-        <v>-0.05529816422669622</v>
+        <v>0.06821000680512122</v>
       </c>
       <c r="D24">
-        <v>0.01365023975951938</v>
+        <v>-0.008793656484868398</v>
       </c>
       <c r="E24">
-        <v>-0.03582642992902639</v>
+        <v>0.01275374071680907</v>
       </c>
       <c r="F24">
-        <v>-0.007020333034490918</v>
+        <v>0.1269033155247831</v>
       </c>
       <c r="G24">
-        <v>-0.08766885859148342</v>
+        <v>0.02578573324223805</v>
       </c>
       <c r="H24">
-        <v>-0.06402142739184254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.06990452165450868</v>
+      </c>
+      <c r="I24">
+        <v>-0.04754607502684141</v>
+      </c>
+      <c r="J24">
+        <v>0.08699564775543517</v>
+      </c>
+      <c r="K24">
+        <v>0.02857657774808527</v>
+      </c>
+      <c r="L24">
+        <v>-0.04264934944605046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.06936726504738717</v>
+        <v>0.07665146991071208</v>
       </c>
       <c r="C25">
-        <v>-0.02705889359180745</v>
+        <v>0.05196229087327014</v>
       </c>
       <c r="D25">
-        <v>0.01541395825787564</v>
+        <v>-0.01841572071166725</v>
       </c>
       <c r="E25">
-        <v>-0.02779133131093861</v>
+        <v>0.02569166577731661</v>
       </c>
       <c r="F25">
-        <v>0.001009658017588001</v>
+        <v>0.1272171389229354</v>
       </c>
       <c r="G25">
-        <v>-0.08696123620693212</v>
+        <v>0.02890301386116882</v>
       </c>
       <c r="H25">
-        <v>-0.06635148690545141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.04997183467381246</v>
+      </c>
+      <c r="I25">
+        <v>-0.02305599922222021</v>
+      </c>
+      <c r="J25">
+        <v>0.08483247674589842</v>
+      </c>
+      <c r="K25">
+        <v>0.01816207292424924</v>
+      </c>
+      <c r="L25">
+        <v>-0.05572371402550506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.05332121641738642</v>
+        <v>0.04322659392289113</v>
       </c>
       <c r="C26">
-        <v>-0.03660494325362119</v>
+        <v>0.01641387600686265</v>
       </c>
       <c r="D26">
-        <v>0.03073717287799663</v>
+        <v>-0.0007030132892516577</v>
       </c>
       <c r="E26">
-        <v>-0.006633967048950734</v>
+        <v>-0.009973594222779191</v>
       </c>
       <c r="F26">
-        <v>-0.01788090420172769</v>
+        <v>0.0442081031071794</v>
       </c>
       <c r="G26">
-        <v>0.006070274583017773</v>
+        <v>0.0283150654869352</v>
       </c>
       <c r="H26">
-        <v>-0.05540290561198015</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.006935170106894463</v>
+      </c>
+      <c r="I26">
+        <v>0.0001202873860195399</v>
+      </c>
+      <c r="J26">
+        <v>-0.04834277528009508</v>
+      </c>
+      <c r="K26">
+        <v>-0.1092076215421398</v>
+      </c>
+      <c r="L26">
+        <v>0.05209494942232931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1729,364 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.08818278076096615</v>
+        <v>0.1415347319868474</v>
       </c>
       <c r="C28">
-        <v>0.2941368408058844</v>
+        <v>-0.2882667656826485</v>
       </c>
       <c r="D28">
-        <v>0.07177647083907758</v>
+        <v>0.005185520175579923</v>
       </c>
       <c r="E28">
-        <v>-0.002397395702248849</v>
+        <v>0.004362105622743606</v>
       </c>
       <c r="F28">
-        <v>0.03681602285051074</v>
+        <v>0.0160135382350784</v>
       </c>
       <c r="G28">
-        <v>0.007206302710418922</v>
+        <v>-0.00686783055873554</v>
       </c>
       <c r="H28">
-        <v>0.05674598824297243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.01546980121331347</v>
+      </c>
+      <c r="I28">
+        <v>0.01911200860648488</v>
+      </c>
+      <c r="J28">
+        <v>0.01550991408286411</v>
+      </c>
+      <c r="K28">
+        <v>-0.0004060824770935208</v>
+      </c>
+      <c r="L28">
+        <v>0.01997992015111109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05350112995767494</v>
+        <v>0.0371575340828952</v>
       </c>
       <c r="C29">
-        <v>-0.005075940318950949</v>
+        <v>0.02134647905403653</v>
       </c>
       <c r="D29">
-        <v>0.007939054068082891</v>
+        <v>-0.02021582973841711</v>
       </c>
       <c r="E29">
-        <v>-0.03785427142201473</v>
+        <v>0.002272919195237425</v>
       </c>
       <c r="F29">
-        <v>-0.02318016706120482</v>
+        <v>0.06217694846511977</v>
       </c>
       <c r="G29">
-        <v>-0.002967664629061867</v>
+        <v>0.02940827545019382</v>
       </c>
       <c r="H29">
-        <v>-0.01904204339451463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.01032918999385401</v>
+      </c>
+      <c r="I29">
+        <v>0.01274208931053918</v>
+      </c>
+      <c r="J29">
+        <v>-0.02862285541094328</v>
+      </c>
+      <c r="K29">
+        <v>-0.1037665075328081</v>
+      </c>
+      <c r="L29">
+        <v>-0.006342410265885047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1190812402128859</v>
+        <v>0.1062790178990476</v>
       </c>
       <c r="C30">
-        <v>-0.02751061112875935</v>
+        <v>0.0568512343020938</v>
       </c>
       <c r="D30">
-        <v>0.05504129757899531</v>
+        <v>0.02112444824046243</v>
       </c>
       <c r="E30">
-        <v>-0.1018427099763893</v>
+        <v>0.007476758415101135</v>
       </c>
       <c r="F30">
-        <v>0.04982592429718699</v>
+        <v>0.2059532165356301</v>
       </c>
       <c r="G30">
-        <v>-0.1833427732950843</v>
+        <v>0.1543878589076665</v>
       </c>
       <c r="H30">
-        <v>-0.02828265945614666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1384614448921218</v>
+      </c>
+      <c r="I30">
+        <v>0.1844324142102092</v>
+      </c>
+      <c r="J30">
+        <v>0.06700122562660303</v>
+      </c>
+      <c r="K30">
+        <v>-0.04776505813537637</v>
+      </c>
+      <c r="L30">
+        <v>-0.1220389432477524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05096814287447604</v>
+        <v>0.03861894290423253</v>
       </c>
       <c r="C31">
-        <v>-0.01867658366975156</v>
+        <v>0.0460900461170352</v>
       </c>
       <c r="D31">
-        <v>-0.01137517325065144</v>
+        <v>-0.003297283634134187</v>
       </c>
       <c r="E31">
-        <v>-0.002770597393398872</v>
+        <v>-0.00306617801809727</v>
       </c>
       <c r="F31">
-        <v>-0.027845419823166</v>
+        <v>0.02304459201283286</v>
       </c>
       <c r="G31">
-        <v>0.02871388147431463</v>
+        <v>0.01265658644303326</v>
       </c>
       <c r="H31">
-        <v>-0.03921415003560177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.03517061990553665</v>
+      </c>
+      <c r="I31">
+        <v>-0.02088872415956637</v>
+      </c>
+      <c r="J31">
+        <v>0.001782635711749665</v>
+      </c>
+      <c r="K31">
+        <v>-0.03708194196107769</v>
+      </c>
+      <c r="L31">
+        <v>-0.02869657368131719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.03720356779835012</v>
+        <v>0.04564380188388766</v>
       </c>
       <c r="C32">
-        <v>0.01089685419950085</v>
+        <v>0.00102023288669474</v>
       </c>
       <c r="D32">
-        <v>0.005995473690158938</v>
+        <v>0.02979177205944146</v>
       </c>
       <c r="E32">
-        <v>-0.08772935591571998</v>
+        <v>0.02495643071400873</v>
       </c>
       <c r="F32">
-        <v>-0.0957853002487471</v>
+        <v>0.06492984048551055</v>
       </c>
       <c r="G32">
-        <v>-0.04772640607602262</v>
+        <v>-0.01169948568852679</v>
       </c>
       <c r="H32">
-        <v>-0.01635058938073677</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.004138292275298234</v>
+      </c>
+      <c r="I32">
+        <v>-0.02928960418106328</v>
+      </c>
+      <c r="J32">
+        <v>0.01025068141931844</v>
+      </c>
+      <c r="K32">
+        <v>-0.07973884327636963</v>
+      </c>
+      <c r="L32">
+        <v>-0.009309450450137211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1166312503092267</v>
+        <v>0.09577143240659748</v>
       </c>
       <c r="C33">
-        <v>-0.03206584465502181</v>
+        <v>0.05864062669127147</v>
       </c>
       <c r="D33">
-        <v>0.003145678433895682</v>
+        <v>-0.00107846246914632</v>
       </c>
       <c r="E33">
-        <v>-0.01759517820129582</v>
+        <v>0.02155742527868421</v>
       </c>
       <c r="F33">
-        <v>-0.05885735330207634</v>
+        <v>0.08405209517748102</v>
       </c>
       <c r="G33">
-        <v>-0.03606998292863393</v>
+        <v>0.008053580868905608</v>
       </c>
       <c r="H33">
-        <v>-0.06190288092443906</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.003883409678209781</v>
+      </c>
+      <c r="I33">
+        <v>-0.0134571196859857</v>
+      </c>
+      <c r="J33">
+        <v>-0.005699645295646953</v>
+      </c>
+      <c r="K33">
+        <v>-0.03478243397717289</v>
+      </c>
+      <c r="L33">
+        <v>-0.02293153518328972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.05570893114142385</v>
+        <v>0.06443366127435077</v>
       </c>
       <c r="C34">
-        <v>-0.05682222976290845</v>
+        <v>0.05913895920198976</v>
       </c>
       <c r="D34">
-        <v>-0.0008527716290384604</v>
+        <v>-0.00633198896574568</v>
       </c>
       <c r="E34">
-        <v>-0.01415452159088731</v>
+        <v>0.02270583788724042</v>
       </c>
       <c r="F34">
-        <v>-0.004871277270537118</v>
+        <v>0.1168099741282044</v>
       </c>
       <c r="G34">
-        <v>-0.0669054637609055</v>
+        <v>0.01647893300952944</v>
       </c>
       <c r="H34">
-        <v>-0.05191405641216881</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.03744250865255285</v>
+      </c>
+      <c r="I34">
+        <v>-0.02556211815133511</v>
+      </c>
+      <c r="J34">
+        <v>0.08362888507132644</v>
+      </c>
+      <c r="K34">
+        <v>-0.03179044161090593</v>
+      </c>
+      <c r="L34">
+        <v>-0.02478899923319848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04626551313001046</v>
+        <v>0.02323472994511171</v>
       </c>
       <c r="C35">
-        <v>-0.02375171861274396</v>
+        <v>0.02199959039601158</v>
       </c>
       <c r="D35">
-        <v>-0.008198948004560254</v>
+        <v>-0.005147416541411255</v>
       </c>
       <c r="E35">
-        <v>-0.01412407275177689</v>
+        <v>0.002901314927238365</v>
       </c>
       <c r="F35">
-        <v>0.02400497781128147</v>
+        <v>0.03200865127811543</v>
       </c>
       <c r="G35">
-        <v>-0.01512543432864844</v>
+        <v>0.02353240380893604</v>
       </c>
       <c r="H35">
-        <v>-0.06700968401716051</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.01902867615792467</v>
+      </c>
+      <c r="I35">
+        <v>0.01353547429185437</v>
+      </c>
+      <c r="J35">
+        <v>0.0356058446355224</v>
+      </c>
+      <c r="K35">
+        <v>-0.08022625438521389</v>
+      </c>
+      <c r="L35">
+        <v>-0.0004353767016688363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03666980074389628</v>
+        <v>0.02758164446603607</v>
       </c>
       <c r="C36">
-        <v>-0.0116517840988903</v>
+        <v>0.01492581768278168</v>
       </c>
       <c r="D36">
-        <v>0.01817404362115883</v>
+        <v>-0.001025926313649109</v>
       </c>
       <c r="E36">
-        <v>-0.03255365543388611</v>
+        <v>-0.01412131625750754</v>
       </c>
       <c r="F36">
-        <v>-0.01494518561456687</v>
+        <v>0.066591207703891</v>
       </c>
       <c r="G36">
-        <v>-0.01492094687644852</v>
+        <v>0.02027323982982087</v>
       </c>
       <c r="H36">
-        <v>-0.07067032430001417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.008395084939834548</v>
+      </c>
+      <c r="I36">
+        <v>0.01008358793095575</v>
+      </c>
+      <c r="J36">
+        <v>-0.03287524821595857</v>
+      </c>
+      <c r="K36">
+        <v>-0.0380831665858737</v>
+      </c>
+      <c r="L36">
+        <v>-0.01780344425967124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2109,174 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.05216019933206966</v>
+        <v>0.02722443003279157</v>
       </c>
       <c r="C38">
-        <v>-0.03031328323622508</v>
+        <v>0.04171451647750086</v>
       </c>
       <c r="D38">
-        <v>0.001815893001935034</v>
+        <v>-0.01274508704781173</v>
       </c>
       <c r="E38">
-        <v>-0.02735988370081873</v>
+        <v>-0.02166878688498668</v>
       </c>
       <c r="F38">
-        <v>-0.02500263437991776</v>
+        <v>-0.04970610683506074</v>
       </c>
       <c r="G38">
-        <v>-0.03748386837447622</v>
+        <v>0.03059971205314545</v>
       </c>
       <c r="H38">
-        <v>0.02365489571464809</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.007487795762605109</v>
+      </c>
+      <c r="I38">
+        <v>0.0007169608689123344</v>
+      </c>
+      <c r="J38">
+        <v>0.005076104876281726</v>
+      </c>
+      <c r="K38">
+        <v>-0.03927036812014609</v>
+      </c>
+      <c r="L38">
+        <v>0.07233062595327067</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.1045671708695223</v>
+        <v>0.1088406542783777</v>
       </c>
       <c r="C39">
-        <v>-0.0675836679309722</v>
+        <v>0.08783015935197849</v>
       </c>
       <c r="D39">
-        <v>-0.00389059200201267</v>
+        <v>-0.007373623795057253</v>
       </c>
       <c r="E39">
-        <v>-0.02695611964867241</v>
+        <v>0.08917933950858599</v>
       </c>
       <c r="F39">
-        <v>-0.002391806580045099</v>
+        <v>0.1552473969206067</v>
       </c>
       <c r="G39">
-        <v>-0.1212558066912764</v>
+        <v>0.1127387254729901</v>
       </c>
       <c r="H39">
-        <v>-0.03742422844807591</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.07109173500667176</v>
+      </c>
+      <c r="I39">
+        <v>0.001138656277496392</v>
+      </c>
+      <c r="J39">
+        <v>0.2129482845443066</v>
+      </c>
+      <c r="K39">
+        <v>0.04818640280001316</v>
+      </c>
+      <c r="L39">
+        <v>-0.06526970939109213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.04713866217578596</v>
+        <v>0.03296175157335252</v>
       </c>
       <c r="C40">
-        <v>-0.02213630731558303</v>
+        <v>0.05654656806965154</v>
       </c>
       <c r="D40">
-        <v>-0.04553560760470173</v>
+        <v>-0.006448474919522449</v>
       </c>
       <c r="E40">
-        <v>-0.1039970450796614</v>
+        <v>-0.04476025824500414</v>
       </c>
       <c r="F40">
-        <v>-0.01781436879169805</v>
+        <v>0.1034763024542878</v>
       </c>
       <c r="G40">
-        <v>-0.1515093254882064</v>
+        <v>0.0149844017528561</v>
       </c>
       <c r="H40">
-        <v>-0.1309679106903104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.0880832167705746</v>
+      </c>
+      <c r="I40">
+        <v>-0.003484649472306024</v>
+      </c>
+      <c r="J40">
+        <v>-0.05620654989975354</v>
+      </c>
+      <c r="K40">
+        <v>-0.02269002519101973</v>
+      </c>
+      <c r="L40">
+        <v>0.1125978285075572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.0470765363263117</v>
+        <v>0.03791949057558448</v>
       </c>
       <c r="C41">
-        <v>-0.03829890126667087</v>
+        <v>0.03436167048071095</v>
       </c>
       <c r="D41">
-        <v>-0.0001450580346307996</v>
+        <v>-0.01769475499982855</v>
       </c>
       <c r="E41">
-        <v>0.005167232851746795</v>
+        <v>0.01460995301973459</v>
       </c>
       <c r="F41">
-        <v>-0.01337061860484007</v>
+        <v>0.01804734499018879</v>
       </c>
       <c r="G41">
-        <v>-0.02952492508040958</v>
+        <v>0.02198943789650433</v>
       </c>
       <c r="H41">
-        <v>-0.02153035246570107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.004129394326354257</v>
+      </c>
+      <c r="I41">
+        <v>-0.003081654359402234</v>
+      </c>
+      <c r="J41">
+        <v>0.0212119197766359</v>
+      </c>
+      <c r="K41">
+        <v>-0.0586983083366231</v>
+      </c>
+      <c r="L41">
+        <v>0.01917356247755656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2299,98 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.06610227376829896</v>
+        <v>0.05105212693785247</v>
       </c>
       <c r="C43">
-        <v>-0.03387817783502384</v>
+        <v>0.03736918429648585</v>
       </c>
       <c r="D43">
-        <v>0.01975290933151298</v>
+        <v>-0.01260141721376797</v>
       </c>
       <c r="E43">
-        <v>-0.02720108178795944</v>
+        <v>-0.01381930522270753</v>
       </c>
       <c r="F43">
-        <v>-0.01436147407430896</v>
+        <v>0.006943276332919856</v>
       </c>
       <c r="G43">
-        <v>-0.003414780785859568</v>
+        <v>0.04476663029032109</v>
       </c>
       <c r="H43">
-        <v>0.007079721567459578</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.02278927615310933</v>
+      </c>
+      <c r="I43">
+        <v>0.02219052751485336</v>
+      </c>
+      <c r="J43">
+        <v>0.04868470465448882</v>
+      </c>
+      <c r="K43">
+        <v>-0.05041274391331878</v>
+      </c>
+      <c r="L43">
+        <v>-0.00990886089710752</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.05148017937242026</v>
+        <v>0.08695453224489523</v>
       </c>
       <c r="C44">
-        <v>-0.02007619708332507</v>
+        <v>0.06498571723301805</v>
       </c>
       <c r="D44">
-        <v>0.08169498528110401</v>
+        <v>-0.02779630037829681</v>
       </c>
       <c r="E44">
-        <v>-0.06333405130736043</v>
+        <v>-0.08785930980978582</v>
       </c>
       <c r="F44">
-        <v>0.004973532583604984</v>
+        <v>0.1720655168387562</v>
       </c>
       <c r="G44">
-        <v>-0.1106248813596122</v>
+        <v>0.01482393895389524</v>
       </c>
       <c r="H44">
-        <v>-0.04232855177095451</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.0522936428093512</v>
+      </c>
+      <c r="I44">
+        <v>-0.02137582327313515</v>
+      </c>
+      <c r="J44">
+        <v>0.009643747704692018</v>
+      </c>
+      <c r="K44">
+        <v>-0.05456707147919798</v>
+      </c>
+      <c r="L44">
+        <v>0.06352635161322569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2413,440 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.04496719154023524</v>
+        <v>0.03004521456792487</v>
       </c>
       <c r="C46">
-        <v>-0.04728629010163683</v>
+        <v>0.02472711520128474</v>
       </c>
       <c r="D46">
-        <v>0.01584024294892607</v>
+        <v>-0.02289897668370594</v>
       </c>
       <c r="E46">
-        <v>-0.05879315537030003</v>
+        <v>-0.03906058525085963</v>
       </c>
       <c r="F46">
-        <v>-0.02361410470681444</v>
+        <v>0.03777254535069873</v>
       </c>
       <c r="G46">
-        <v>-0.01407514891484087</v>
+        <v>0.02079872245215943</v>
       </c>
       <c r="H46">
-        <v>-0.03151314487817338</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.04001293152844299</v>
+      </c>
+      <c r="I46">
+        <v>-0.03381431852910687</v>
+      </c>
+      <c r="J46">
+        <v>-0.02603963087123289</v>
+      </c>
+      <c r="K46">
+        <v>-0.1326332277342396</v>
+      </c>
+      <c r="L46">
+        <v>-0.03551994037910985</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.04416058777402502</v>
+        <v>0.04228159433855953</v>
       </c>
       <c r="C47">
-        <v>-0.01630953876841132</v>
+        <v>0.0264678531283022</v>
       </c>
       <c r="D47">
-        <v>0.003676786279178275</v>
+        <v>-0.005455417046051053</v>
       </c>
       <c r="E47">
-        <v>-0.06996433743481659</v>
+        <v>-0.02009519368944587</v>
       </c>
       <c r="F47">
-        <v>-0.0177452530565452</v>
+        <v>0.03583411822180931</v>
       </c>
       <c r="G47">
-        <v>0.01540585150074203</v>
+        <v>0.004406787528578916</v>
       </c>
       <c r="H47">
-        <v>-0.02401233649165411</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.01639318558035767</v>
+      </c>
+      <c r="I47">
+        <v>0.0258403894484755</v>
+      </c>
+      <c r="J47">
+        <v>-0.02469214804124123</v>
+      </c>
+      <c r="K47">
+        <v>-0.04985137628032001</v>
+      </c>
+      <c r="L47">
+        <v>0.01640721868857635</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04126514391620508</v>
+        <v>0.04193554351708452</v>
       </c>
       <c r="C48">
-        <v>-0.01505780638798168</v>
+        <v>0.018668160514306</v>
       </c>
       <c r="D48">
-        <v>-0.006679767931222892</v>
+        <v>-0.006944371226020172</v>
       </c>
       <c r="E48">
-        <v>-0.05262468028396054</v>
+        <v>-0.01091585692518801</v>
       </c>
       <c r="F48">
-        <v>-0.02999343548617617</v>
+        <v>0.07080082095199479</v>
       </c>
       <c r="G48">
-        <v>0.002327242496834068</v>
+        <v>-0.002871207976273032</v>
       </c>
       <c r="H48">
-        <v>-0.05454354419821762</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.03931959368276528</v>
+      </c>
+      <c r="I48">
+        <v>0.01111771542876481</v>
+      </c>
+      <c r="J48">
+        <v>-0.0121824139553285</v>
+      </c>
+      <c r="K48">
+        <v>-0.0539895904071843</v>
+      </c>
+      <c r="L48">
+        <v>-0.03091030648177107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.23038965456635</v>
+        <v>0.2240012070111018</v>
       </c>
       <c r="C49">
-        <v>-0.1163042328808716</v>
+        <v>0.06564156741454515</v>
       </c>
       <c r="D49">
-        <v>0.03809121591612265</v>
+        <v>-0.08737978395581715</v>
       </c>
       <c r="E49">
-        <v>0.02819371625985887</v>
+        <v>0.03452851974232617</v>
       </c>
       <c r="F49">
-        <v>0.1691341460664948</v>
+        <v>-0.2204979767254887</v>
       </c>
       <c r="G49">
-        <v>0.008019225129428301</v>
+        <v>-0.09629270361350668</v>
       </c>
       <c r="H49">
-        <v>0.1586108457381998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.2096251164690195</v>
+      </c>
+      <c r="I49">
+        <v>-0.02621881274304666</v>
+      </c>
+      <c r="J49">
+        <v>0.08791685325854628</v>
+      </c>
+      <c r="K49">
+        <v>0.1616001695993974</v>
+      </c>
+      <c r="L49">
+        <v>-0.03007630019002536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.05514089055398914</v>
+        <v>0.04493245987796245</v>
       </c>
       <c r="C50">
-        <v>-0.0252433673626847</v>
+        <v>0.032788130330449</v>
       </c>
       <c r="D50">
-        <v>-0.007380025599033362</v>
+        <v>-0.001155532003321648</v>
       </c>
       <c r="E50">
-        <v>-0.02093001091612348</v>
+        <v>0.001622063185725497</v>
       </c>
       <c r="F50">
-        <v>-0.05508002660707454</v>
+        <v>0.04197997144428196</v>
       </c>
       <c r="G50">
-        <v>0.03177833375259571</v>
+        <v>0.035075723026338</v>
       </c>
       <c r="H50">
-        <v>-0.04225931403110578</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.02639069317458262</v>
+      </c>
+      <c r="I50">
+        <v>-0.01176632624479415</v>
+      </c>
+      <c r="J50">
+        <v>-0.01950384484134741</v>
+      </c>
+      <c r="K50">
+        <v>-0.05169547734288751</v>
+      </c>
+      <c r="L50">
+        <v>-0.03235768175476553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.02943034174356782</v>
+        <v>0.02497972902416476</v>
       </c>
       <c r="C51">
-        <v>-0.01195606430863061</v>
+        <v>0.00222377368639464</v>
       </c>
       <c r="D51">
-        <v>0.004498152635989934</v>
+        <v>-0.01575949576012784</v>
       </c>
       <c r="E51">
-        <v>0.005500271440538287</v>
+        <v>-0.003214181106915596</v>
       </c>
       <c r="F51">
-        <v>0.005584980646759456</v>
+        <v>-0.02160728370338917</v>
       </c>
       <c r="G51">
-        <v>-0.00706038447184138</v>
+        <v>-0.0111338155793708</v>
       </c>
       <c r="H51">
-        <v>0.02965354539219074</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.007154980219796984</v>
+      </c>
+      <c r="I51">
+        <v>0.006842517735073159</v>
+      </c>
+      <c r="J51">
+        <v>0.06339740074854208</v>
+      </c>
+      <c r="K51">
+        <v>0.03002070113719262</v>
+      </c>
+      <c r="L51">
+        <v>-0.0243578699805972</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.04824811847294488</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.0248656073033746</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.003753628074405233</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.009990956302457077</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01824900821857156</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.07151771253502</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.02691473386701301</v>
+      </c>
+      <c r="I52">
+        <v>-0.03748339215767002</v>
+      </c>
+      <c r="J52">
+        <v>-0.04616429398094854</v>
+      </c>
+      <c r="K52">
+        <v>0.04172432591285171</v>
+      </c>
+      <c r="L52">
+        <v>-0.007605485735877565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1674633028960895</v>
+        <v>0.1628554869407042</v>
       </c>
       <c r="C53">
-        <v>-0.000983432226765389</v>
+        <v>0.0454634857932977</v>
       </c>
       <c r="D53">
-        <v>0.02284407279937377</v>
+        <v>-0.0248157655388543</v>
       </c>
       <c r="E53">
-        <v>0.1183768744400244</v>
+        <v>0.00725544192970495</v>
       </c>
       <c r="F53">
-        <v>-0.214036605053858</v>
+        <v>-0.07451911521238774</v>
       </c>
       <c r="G53">
-        <v>0.009616671342411834</v>
+        <v>0.1429676074066333</v>
       </c>
       <c r="H53">
-        <v>-0.07456206016797981</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.1955849308732432</v>
+      </c>
+      <c r="I53">
+        <v>-0.1591161880718276</v>
+      </c>
+      <c r="J53">
+        <v>-0.09099539331444698</v>
+      </c>
+      <c r="K53">
+        <v>0.03125234014731654</v>
+      </c>
+      <c r="L53">
+        <v>-0.01681927189947295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.0504057712362119</v>
+        <v>0.0556296461286936</v>
       </c>
       <c r="C54">
-        <v>-0.01339235657463378</v>
+        <v>0.04377199783504396</v>
       </c>
       <c r="D54">
-        <v>0.02297568461031809</v>
+        <v>-0.01246730739876943</v>
       </c>
       <c r="E54">
-        <v>-0.05500650886259635</v>
+        <v>-0.0187372782443337</v>
       </c>
       <c r="F54">
-        <v>-0.02830855878464551</v>
+        <v>0.1240469014347816</v>
       </c>
       <c r="G54">
-        <v>-0.03824110970575403</v>
+        <v>-0.0200448200859814</v>
       </c>
       <c r="H54">
-        <v>-0.07185288990184886</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.02679777828640795</v>
+      </c>
+      <c r="I54">
+        <v>0.03984092708237419</v>
+      </c>
+      <c r="J54">
+        <v>-0.0649224247749919</v>
+      </c>
+      <c r="K54">
+        <v>-0.1465216414514567</v>
+      </c>
+      <c r="L54">
+        <v>0.01912432721661803</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.09215831735217238</v>
+        <v>0.08805345851701429</v>
       </c>
       <c r="C55">
-        <v>-0.00662704212589935</v>
+        <v>0.03953658393716111</v>
       </c>
       <c r="D55">
-        <v>0.02209039037115063</v>
+        <v>-0.02119465188962535</v>
       </c>
       <c r="E55">
-        <v>0.04136354862282482</v>
+        <v>0.02307978351224021</v>
       </c>
       <c r="F55">
-        <v>-0.1754472355163828</v>
+        <v>0.003879179707888621</v>
       </c>
       <c r="G55">
-        <v>0.01081101153609104</v>
+        <v>0.07207277747631911</v>
       </c>
       <c r="H55">
-        <v>-0.0990344149526912</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.1215255332086817</v>
+      </c>
+      <c r="I55">
+        <v>-0.1035544530821522</v>
+      </c>
+      <c r="J55">
+        <v>-0.0382908483743798</v>
+      </c>
+      <c r="K55">
+        <v>-0.006017033215063083</v>
+      </c>
+      <c r="L55">
+        <v>-0.005504602392575769</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1656525273598781</v>
+        <v>0.1534743029150845</v>
       </c>
       <c r="C56">
-        <v>-0.005273106489196889</v>
+        <v>0.0614616949952637</v>
       </c>
       <c r="D56">
-        <v>0.02234344556383509</v>
+        <v>-0.0479034925721438</v>
       </c>
       <c r="E56">
-        <v>0.1028254571401387</v>
+        <v>0.0224110431984532</v>
       </c>
       <c r="F56">
-        <v>-0.2256189734466768</v>
+        <v>-0.04456108337317737</v>
       </c>
       <c r="G56">
-        <v>0.04397367304061714</v>
+        <v>0.1307094545468002</v>
       </c>
       <c r="H56">
-        <v>-0.07367167118358807</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1675421212526522</v>
+      </c>
+      <c r="I56">
+        <v>-0.1584737657876693</v>
+      </c>
+      <c r="J56">
+        <v>-0.06270451336556128</v>
+      </c>
+      <c r="K56">
+        <v>0.03125579476949096</v>
+      </c>
+      <c r="L56">
+        <v>0.01654047316984201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2869,1694 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.02531639536554893</v>
+        <v>0.0419789726764198</v>
       </c>
       <c r="C58">
-        <v>-0.04278839303614946</v>
+        <v>0.03682626352853234</v>
       </c>
       <c r="D58">
-        <v>-0.02705389211890422</v>
+        <v>0.01454345351175196</v>
       </c>
       <c r="E58">
-        <v>-0.3990593271219114</v>
+        <v>-0.08264071986574044</v>
       </c>
       <c r="F58">
-        <v>0.335555904578107</v>
+        <v>0.01915044364935651</v>
       </c>
       <c r="G58">
-        <v>0.1888582370834164</v>
+        <v>0.03668852521615854</v>
       </c>
       <c r="H58">
-        <v>-0.5762721177968774</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1401372335829718</v>
+      </c>
+      <c r="I58">
+        <v>0.1312163075255378</v>
+      </c>
+      <c r="J58">
+        <v>0.1871757721259566</v>
+      </c>
+      <c r="K58">
+        <v>-0.1455601887046555</v>
+      </c>
+      <c r="L58">
+        <v>-0.3337219619384962</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1850004561699732</v>
+        <v>0.2140469156457439</v>
       </c>
       <c r="C59">
-        <v>0.4031069787306938</v>
+        <v>-0.2999425855677957</v>
       </c>
       <c r="D59">
-        <v>0.08987671506118185</v>
+        <v>-0.01963430566323972</v>
       </c>
       <c r="E59">
-        <v>0.01709570133929818</v>
+        <v>0.04052532413215044</v>
       </c>
       <c r="F59">
-        <v>-0.02590186497382856</v>
+        <v>0.03365196050584909</v>
       </c>
       <c r="G59">
-        <v>-0.06313716454811165</v>
+        <v>-0.03030382355880563</v>
       </c>
       <c r="H59">
-        <v>0.02104842124100416</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.1106241231874152</v>
+      </c>
+      <c r="I59">
+        <v>-0.05868644130646578</v>
+      </c>
+      <c r="J59">
+        <v>0.05221560503173918</v>
+      </c>
+      <c r="K59">
+        <v>0.08013530466808849</v>
+      </c>
+      <c r="L59">
+        <v>0.07048935319048405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2597550052133653</v>
+        <v>0.2384522889365962</v>
       </c>
       <c r="C60">
-        <v>-0.05460748501859346</v>
+        <v>0.1086294240977586</v>
       </c>
       <c r="D60">
-        <v>0.07501872252022554</v>
+        <v>-0.1078165989338909</v>
       </c>
       <c r="E60">
-        <v>0.02410637559330928</v>
+        <v>0.04026674123201168</v>
       </c>
       <c r="F60">
-        <v>0.05882168137482197</v>
+        <v>-0.1420144456379236</v>
       </c>
       <c r="G60">
-        <v>0.06627218232659528</v>
+        <v>-0.02194760901534418</v>
       </c>
       <c r="H60">
-        <v>0.1790078325225551</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.0529343641369437</v>
+      </c>
+      <c r="I60">
+        <v>0.05426788153446976</v>
+      </c>
+      <c r="J60">
+        <v>-0.09385883647676109</v>
+      </c>
+      <c r="K60">
+        <v>0.2332098394751383</v>
+      </c>
+      <c r="L60">
+        <v>-0.1044884599272848</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.09175557468015312</v>
+        <v>0.1044097669400711</v>
       </c>
       <c r="C61">
-        <v>-0.03785091670178421</v>
+        <v>0.05889243465447749</v>
       </c>
       <c r="D61">
-        <v>0.005954085938126405</v>
+        <v>-0.02373796526068487</v>
       </c>
       <c r="E61">
-        <v>0.005648661485839454</v>
+        <v>0.04530155512678635</v>
       </c>
       <c r="F61">
-        <v>-0.01073597442757881</v>
+        <v>0.1342136600724709</v>
       </c>
       <c r="G61">
-        <v>-0.04487963875046038</v>
+        <v>0.08992413461263177</v>
       </c>
       <c r="H61">
-        <v>-0.00788831796974771</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.008511531534268679</v>
+      </c>
+      <c r="I61">
+        <v>-0.02373347019393178</v>
+      </c>
+      <c r="J61">
+        <v>0.1123934582419289</v>
+      </c>
+      <c r="K61">
+        <v>-0.02729267246817081</v>
+      </c>
+      <c r="L61">
+        <v>-0.02594742459819036</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1487298877271066</v>
+        <v>0.1455907858922762</v>
       </c>
       <c r="C62">
-        <v>-0.02204972176681236</v>
+        <v>0.06167913697185145</v>
       </c>
       <c r="D62">
-        <v>-0.02052617878423563</v>
+        <v>-0.01868831166835882</v>
       </c>
       <c r="E62">
-        <v>0.1738086307666062</v>
+        <v>0.03162967998953042</v>
       </c>
       <c r="F62">
-        <v>-0.2093035474127797</v>
+        <v>-0.05903212796881618</v>
       </c>
       <c r="G62">
-        <v>-0.0221096461866695</v>
+        <v>0.1019199824606162</v>
       </c>
       <c r="H62">
-        <v>-0.07283762901750578</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.1438975954272677</v>
+      </c>
+      <c r="I62">
+        <v>-0.1745282874858679</v>
+      </c>
+      <c r="J62">
+        <v>-0.125906175897878</v>
+      </c>
+      <c r="K62">
+        <v>-0.0004693223837697815</v>
+      </c>
+      <c r="L62">
+        <v>0.03107014170772903</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.04058024589024636</v>
+        <v>0.04424672062212596</v>
       </c>
       <c r="C63">
-        <v>-0.02411041172501029</v>
+        <v>0.02714112384139633</v>
       </c>
       <c r="D63">
-        <v>-0.006250567451556907</v>
+        <v>0.01539536113474942</v>
       </c>
       <c r="E63">
-        <v>-0.006532940951496368</v>
+        <v>0.008740022037447333</v>
       </c>
       <c r="F63">
-        <v>-0.01448110698163509</v>
+        <v>0.06749501831472497</v>
       </c>
       <c r="G63">
-        <v>-0.006383936227268044</v>
+        <v>0.007554180060530163</v>
       </c>
       <c r="H63">
-        <v>-0.05535841454314744</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.007783712019905091</v>
+      </c>
+      <c r="I63">
+        <v>0.009690796667943482</v>
+      </c>
+      <c r="J63">
+        <v>0.002351817599874081</v>
+      </c>
+      <c r="K63">
+        <v>-0.04602626742389494</v>
+      </c>
+      <c r="L63">
+        <v>-0.03473658624946052</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1067157084018156</v>
+        <v>0.09750075813514376</v>
       </c>
       <c r="C64">
-        <v>-0.02310599331515482</v>
+        <v>0.04512657994471592</v>
       </c>
       <c r="D64">
-        <v>0.04092999521052162</v>
+        <v>-0.05174221962301711</v>
       </c>
       <c r="E64">
-        <v>-0.039272433920571</v>
+        <v>-0.01732052444420807</v>
       </c>
       <c r="F64">
-        <v>0.01921673119722696</v>
+        <v>0.06578862715767116</v>
       </c>
       <c r="G64">
-        <v>-0.07396353807924111</v>
+        <v>0.03753193781311164</v>
       </c>
       <c r="H64">
-        <v>0.03632819181499274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.0639844997037219</v>
+      </c>
+      <c r="I64">
+        <v>0.06480164308196873</v>
+      </c>
+      <c r="J64">
+        <v>0.01821533753353586</v>
+      </c>
+      <c r="K64">
+        <v>0.01010914882990976</v>
+      </c>
+      <c r="L64">
+        <v>0.007121428000772965</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1239679788037975</v>
+        <v>0.1237313182834242</v>
       </c>
       <c r="C65">
-        <v>-0.04471724689567178</v>
+        <v>0.04942891923105788</v>
       </c>
       <c r="D65">
-        <v>0.03210251569497788</v>
+        <v>0.01308625719005965</v>
       </c>
       <c r="E65">
-        <v>-0.08825392188881974</v>
+        <v>0.01160060418049051</v>
       </c>
       <c r="F65">
-        <v>0.1550247462208917</v>
+        <v>-0.02845626641454278</v>
       </c>
       <c r="G65">
-        <v>0.2515194040111437</v>
+        <v>-0.05285952407233135</v>
       </c>
       <c r="H65">
-        <v>-0.2209430142367744</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.01909489188073217</v>
+      </c>
+      <c r="I65">
+        <v>0.3493546177592265</v>
+      </c>
+      <c r="J65">
+        <v>-0.4775978163125106</v>
+      </c>
+      <c r="K65">
+        <v>0.07012124572872645</v>
+      </c>
+      <c r="L65">
+        <v>-0.3937789222399992</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1650863936349239</v>
+        <v>0.1376811252966346</v>
       </c>
       <c r="C66">
-        <v>-0.08367451461694198</v>
+        <v>0.1177875983314864</v>
       </c>
       <c r="D66">
-        <v>-0.01068524379828258</v>
+        <v>-0.01157417640378902</v>
       </c>
       <c r="E66">
-        <v>0.01257577681741997</v>
+        <v>0.1055446223083077</v>
       </c>
       <c r="F66">
-        <v>-0.01050275056305337</v>
+        <v>0.1532293026812589</v>
       </c>
       <c r="G66">
-        <v>-0.2433189555248716</v>
+        <v>0.1398820034475471</v>
       </c>
       <c r="H66">
-        <v>-0.06648916149715069</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.09507803403252403</v>
+      </c>
+      <c r="I66">
+        <v>-0.04895324781106539</v>
+      </c>
+      <c r="J66">
+        <v>0.208690236271089</v>
+      </c>
+      <c r="K66">
+        <v>0.1124135074572459</v>
+      </c>
+      <c r="L66">
+        <v>-0.04003202888441294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.0992087959272506</v>
+        <v>0.07488428971886481</v>
       </c>
       <c r="C67">
-        <v>-0.04777624488709753</v>
+        <v>0.05223814768571919</v>
       </c>
       <c r="D67">
-        <v>0.02176615520281903</v>
+        <v>-0.01058997510834566</v>
       </c>
       <c r="E67">
-        <v>-0.006607801473436993</v>
+        <v>-0.02421575040405034</v>
       </c>
       <c r="F67">
-        <v>-0.02087654396768397</v>
+        <v>-0.03728925505147191</v>
       </c>
       <c r="G67">
-        <v>-0.03500987952354083</v>
+        <v>0.02577188160590187</v>
       </c>
       <c r="H67">
-        <v>0.04417039152814446</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.03159127723897149</v>
+      </c>
+      <c r="I67">
+        <v>0.01616175625102784</v>
+      </c>
+      <c r="J67">
+        <v>0.05168678319678088</v>
+      </c>
+      <c r="K67">
+        <v>0.02302123709232981</v>
+      </c>
+      <c r="L67">
+        <v>0.1001839754064969</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.06347306172901837</v>
+        <v>0.1169421509857124</v>
       </c>
       <c r="C68">
-        <v>0.2910894853682868</v>
+        <v>-0.2709086420757417</v>
       </c>
       <c r="D68">
-        <v>0.0320266272506675</v>
+        <v>0.02229286324524797</v>
       </c>
       <c r="E68">
-        <v>-0.01944906869187096</v>
+        <v>0.01020930827051291</v>
       </c>
       <c r="F68">
-        <v>-0.02228734218683881</v>
+        <v>0.04035473188821156</v>
       </c>
       <c r="G68">
-        <v>0.03473368665313456</v>
+        <v>0.01218326520004595</v>
       </c>
       <c r="H68">
-        <v>-0.03744379189365708</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.01926702500828944</v>
+      </c>
+      <c r="I68">
+        <v>0.02189117730419335</v>
+      </c>
+      <c r="J68">
+        <v>-0.02907349176858422</v>
+      </c>
+      <c r="K68">
+        <v>-0.01715629096803626</v>
+      </c>
+      <c r="L68">
+        <v>-0.04812946513029591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.04300186434764913</v>
+        <v>0.04011710015113475</v>
       </c>
       <c r="C69">
-        <v>-0.02029402367101338</v>
+        <v>0.006243252901500437</v>
       </c>
       <c r="D69">
-        <v>0.005534041472751839</v>
+        <v>-0.01042730247774173</v>
       </c>
       <c r="E69">
-        <v>-0.01255629141367125</v>
+        <v>-0.005802898652596387</v>
       </c>
       <c r="F69">
-        <v>-0.0203861684280295</v>
+        <v>0.01330392487520826</v>
       </c>
       <c r="G69">
-        <v>-0.02976876245297804</v>
+        <v>0.03846567569121862</v>
       </c>
       <c r="H69">
-        <v>-0.02071059753036333</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.02172960269648508</v>
+      </c>
+      <c r="I69">
+        <v>0.01309195196098855</v>
+      </c>
+      <c r="J69">
+        <v>0.001045655395005533</v>
+      </c>
+      <c r="K69">
+        <v>-0.02294529525319602</v>
+      </c>
+      <c r="L69">
+        <v>0.003997024488927383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.07369422411428778</v>
+        <v>0.05170491433035119</v>
       </c>
       <c r="C70">
-        <v>-0.01049061632963473</v>
+        <v>0.01755701318745965</v>
       </c>
       <c r="D70">
-        <v>0.0350744692365834</v>
+        <v>-0.03545221271179207</v>
       </c>
       <c r="E70">
-        <v>-0.005527035988701396</v>
+        <v>0.02201128366995443</v>
       </c>
       <c r="F70">
-        <v>0.08945496467443766</v>
+        <v>0.01364125867109404</v>
       </c>
       <c r="G70">
-        <v>0.04477207841522179</v>
+        <v>-0.00907522752765289</v>
       </c>
       <c r="H70">
-        <v>0.06086923680236497</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.009879610402506187</v>
+      </c>
+      <c r="I70">
+        <v>0.1240123098223982</v>
+      </c>
+      <c r="J70">
+        <v>-0.08212042868367225</v>
+      </c>
+      <c r="K70">
+        <v>-0.283649028905776</v>
+      </c>
+      <c r="L70">
+        <v>0.1854343559959679</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.07407149531221456</v>
+        <v>0.1311817667398863</v>
       </c>
       <c r="C71">
-        <v>0.2885193670398276</v>
+        <v>-0.28338974336512</v>
       </c>
       <c r="D71">
-        <v>0.06165931304974032</v>
+        <v>-0.007772277533718602</v>
       </c>
       <c r="E71">
-        <v>-0.008682307829232468</v>
+        <v>0.001514076245488299</v>
       </c>
       <c r="F71">
-        <v>0.006277093419107083</v>
+        <v>0.04541349322844223</v>
       </c>
       <c r="G71">
-        <v>0.01653336271664978</v>
+        <v>0.04079567724198673</v>
       </c>
       <c r="H71">
-        <v>-0.01751602096872763</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.009370567716948367</v>
+      </c>
+      <c r="I71">
+        <v>0.02079148009822889</v>
+      </c>
+      <c r="J71">
+        <v>0.005948143101339391</v>
+      </c>
+      <c r="K71">
+        <v>0.006396613565856277</v>
+      </c>
+      <c r="L71">
+        <v>-0.03147371228561856</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1646518612101419</v>
+        <v>0.1492341745014999</v>
       </c>
       <c r="C72">
-        <v>0.01323736823317806</v>
+        <v>0.02951375870012094</v>
       </c>
       <c r="D72">
-        <v>-0.2361171882343448</v>
+        <v>0.0922543164997072</v>
       </c>
       <c r="E72">
-        <v>0.03327588987924857</v>
+        <v>0.02862391031619956</v>
       </c>
       <c r="F72">
-        <v>-0.04620556127884489</v>
+        <v>-0.004777845364296946</v>
       </c>
       <c r="G72">
-        <v>-0.06705211690947144</v>
+        <v>0.06478820241737708</v>
       </c>
       <c r="H72">
-        <v>-0.04202823937168339</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.03528043885197719</v>
+      </c>
+      <c r="I72">
+        <v>-0.03479745638258076</v>
+      </c>
+      <c r="J72">
+        <v>-0.1211953784559611</v>
+      </c>
+      <c r="K72">
+        <v>0.1007286837691174</v>
+      </c>
+      <c r="L72">
+        <v>-0.01577487743570477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2888213174865533</v>
+        <v>0.2381606840471253</v>
       </c>
       <c r="C73">
-        <v>-0.1761073016902246</v>
+        <v>0.1280419591537913</v>
       </c>
       <c r="D73">
-        <v>0.07759038640614399</v>
+        <v>-0.1617199400723528</v>
       </c>
       <c r="E73">
-        <v>0.08727054034083292</v>
+        <v>0.1071682740426379</v>
       </c>
       <c r="F73">
-        <v>0.2907777377197676</v>
+        <v>-0.4361390273115994</v>
       </c>
       <c r="G73">
-        <v>0.1535803535983856</v>
+        <v>-0.03221584469516948</v>
       </c>
       <c r="H73">
-        <v>0.08477213263616651</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2567863232400461</v>
+      </c>
+      <c r="I73">
+        <v>0.1335772135203017</v>
+      </c>
+      <c r="J73">
+        <v>0.2803990027137529</v>
+      </c>
+      <c r="K73">
+        <v>0.1979508921840146</v>
+      </c>
+      <c r="L73">
+        <v>-0.09415164303693316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.09693824625742846</v>
+        <v>0.104075321027258</v>
       </c>
       <c r="C74">
-        <v>-0.03381383491588093</v>
+        <v>0.06927972721063046</v>
       </c>
       <c r="D74">
-        <v>0.006891178164986234</v>
+        <v>-0.007744704144257914</v>
       </c>
       <c r="E74">
-        <v>0.04142650833332782</v>
+        <v>0.01190212404786877</v>
       </c>
       <c r="F74">
-        <v>-0.09354493926829423</v>
+        <v>-0.04902967372088506</v>
       </c>
       <c r="G74">
-        <v>0.04621666551279414</v>
+        <v>0.1187751005415975</v>
       </c>
       <c r="H74">
-        <v>-0.0653704653552913</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.08009508345036241</v>
+      </c>
+      <c r="I74">
+        <v>-0.0729937401414632</v>
+      </c>
+      <c r="J74">
+        <v>-0.02045465233246614</v>
+      </c>
+      <c r="K74">
+        <v>0.004369457803425736</v>
+      </c>
+      <c r="L74">
+        <v>-0.007073172948117602</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.09865626265894972</v>
+        <v>0.09991295404197095</v>
       </c>
       <c r="C75">
-        <v>-0.02154842213054794</v>
+        <v>0.05249713549192543</v>
       </c>
       <c r="D75">
-        <v>-0.0009294217201036839</v>
+        <v>-0.004863094640634497</v>
       </c>
       <c r="E75">
-        <v>0.04661725937586308</v>
+        <v>0.008209141569976208</v>
       </c>
       <c r="F75">
-        <v>-0.1233336721666269</v>
+        <v>-0.03439772544313639</v>
       </c>
       <c r="G75">
-        <v>0.04262485374261774</v>
+        <v>0.03954940568927346</v>
       </c>
       <c r="H75">
-        <v>-0.02876061569730435</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.1156893506922447</v>
+      </c>
+      <c r="I75">
+        <v>-0.08234096230706392</v>
+      </c>
+      <c r="J75">
+        <v>-0.04108878679592529</v>
+      </c>
+      <c r="K75">
+        <v>0.01143512437556317</v>
+      </c>
+      <c r="L75">
+        <v>0.003019197571971727</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1335197284906594</v>
+        <v>0.0723903340975191</v>
       </c>
       <c r="C76">
-        <v>-0.03903385483546044</v>
+        <v>0.0460757028133529</v>
       </c>
       <c r="D76">
-        <v>0.02079429569215806</v>
+        <v>-0.03322716397664474</v>
       </c>
       <c r="E76">
-        <v>0.05182463100967494</v>
+        <v>-0.001044246880873374</v>
       </c>
       <c r="F76">
-        <v>-0.2246745785491553</v>
+        <v>-0.068908929381755</v>
       </c>
       <c r="G76">
-        <v>0.06682440707483625</v>
+        <v>0.05221691576066541</v>
       </c>
       <c r="H76">
-        <v>-0.04355964522180816</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.158213104472927</v>
+      </c>
+      <c r="I76">
+        <v>-0.1039529035058711</v>
+      </c>
+      <c r="J76">
+        <v>0.01433891638405367</v>
+      </c>
+      <c r="K76">
+        <v>-0.04249481956527401</v>
+      </c>
+      <c r="L76">
+        <v>0.0003126114497226402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.07645592711771497</v>
+        <v>0.0703611777253552</v>
       </c>
       <c r="C77">
-        <v>-0.03190988331546857</v>
+        <v>0.03379420701583746</v>
       </c>
       <c r="D77">
-        <v>0.0278675390620484</v>
+        <v>-0.03623516581982245</v>
       </c>
       <c r="E77">
-        <v>-0.1102169529026844</v>
+        <v>0.005007202804278303</v>
       </c>
       <c r="F77">
-        <v>0.2220042683032347</v>
+        <v>0.2759531972658197</v>
       </c>
       <c r="G77">
-        <v>-0.6132049649726441</v>
+        <v>-0.0300499831710484</v>
       </c>
       <c r="H77">
-        <v>0.2387749582799299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.06910460560287564</v>
+      </c>
+      <c r="I77">
+        <v>0.2298489763725493</v>
+      </c>
+      <c r="J77">
+        <v>-0.07626969527903854</v>
+      </c>
+      <c r="K77">
+        <v>0.4992978422576542</v>
+      </c>
+      <c r="L77">
+        <v>0.4934771196288631</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.189737340707541</v>
+        <v>0.1535835417624081</v>
       </c>
       <c r="C78">
-        <v>-0.08217980985448418</v>
+        <v>0.1165649527894776</v>
       </c>
       <c r="D78">
-        <v>0.04570858298354187</v>
+        <v>0.04413952859170081</v>
       </c>
       <c r="E78">
-        <v>-0.2186392949466355</v>
+        <v>-0.1863227743434744</v>
       </c>
       <c r="F78">
-        <v>-0.04692476302132585</v>
+        <v>0.1945848828632834</v>
       </c>
       <c r="G78">
-        <v>-0.08450541896122782</v>
+        <v>-0.723773101936686</v>
       </c>
       <c r="H78">
-        <v>0.0854117275981477</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.4307809815806664</v>
+      </c>
+      <c r="I78">
+        <v>-0.06267738577488555</v>
+      </c>
+      <c r="J78">
+        <v>0.2217457251475173</v>
+      </c>
+      <c r="K78">
+        <v>0.1438188942689984</v>
+      </c>
+      <c r="L78">
+        <v>-0.137665426617084</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1357137967223101</v>
+        <v>0.1350498419994059</v>
       </c>
       <c r="C79">
-        <v>-0.0299959911238056</v>
+        <v>0.06800262517400397</v>
       </c>
       <c r="D79">
-        <v>0.003198706691478509</v>
+        <v>-0.02253899750099985</v>
       </c>
       <c r="E79">
-        <v>0.06579993485374669</v>
+        <v>-0.002556636881477206</v>
       </c>
       <c r="F79">
-        <v>-0.1666861138518272</v>
+        <v>-0.009149374619673146</v>
       </c>
       <c r="G79">
-        <v>0.003181930684961552</v>
+        <v>0.1084394359535228</v>
       </c>
       <c r="H79">
-        <v>-0.06590321734160205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.116606979947662</v>
+      </c>
+      <c r="I79">
+        <v>-0.1177165698913885</v>
+      </c>
+      <c r="J79">
+        <v>-0.07166660122686636</v>
+      </c>
+      <c r="K79">
+        <v>0.01292859697794867</v>
+      </c>
+      <c r="L79">
+        <v>-0.001007002815328199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.03890620073404031</v>
+        <v>0.06155593303116186</v>
       </c>
       <c r="C80">
-        <v>-0.02027499711659029</v>
+        <v>0.03378330998060846</v>
       </c>
       <c r="D80">
-        <v>0.01549147970881863</v>
+        <v>-0.02812118257900767</v>
       </c>
       <c r="E80">
-        <v>0.03319749356149159</v>
+        <v>0.06238563893145954</v>
       </c>
       <c r="F80">
-        <v>0.02369484572925877</v>
+        <v>0.0343525664616811</v>
       </c>
       <c r="G80">
-        <v>-0.0008406537732382356</v>
+        <v>0.004181976481025864</v>
       </c>
       <c r="H80">
-        <v>-0.04534061720541813</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.05552394193667286</v>
+      </c>
+      <c r="I80">
+        <v>0.1014900719101438</v>
+      </c>
+      <c r="J80">
+        <v>-0.01740219628534814</v>
+      </c>
+      <c r="K80">
+        <v>-0.1785313210413387</v>
+      </c>
+      <c r="L80">
+        <v>-0.047061673905573</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1035223371095069</v>
+        <v>0.1227380000831242</v>
       </c>
       <c r="C81">
-        <v>-0.02476062520352309</v>
+        <v>0.0603787995254414</v>
       </c>
       <c r="D81">
-        <v>0.01362522156050156</v>
+        <v>-0.02684905958148142</v>
       </c>
       <c r="E81">
-        <v>0.0745218143015423</v>
+        <v>-0.003730019805629684</v>
       </c>
       <c r="F81">
-        <v>-0.1260421744637221</v>
+        <v>0.002640726893439744</v>
       </c>
       <c r="G81">
-        <v>0.009742148141865909</v>
+        <v>0.07306975829700428</v>
       </c>
       <c r="H81">
-        <v>0.02621855203981165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.07725168200295808</v>
+      </c>
+      <c r="I81">
+        <v>-0.1161561924791752</v>
+      </c>
+      <c r="J81">
+        <v>-0.04001290780713423</v>
+      </c>
+      <c r="K81">
+        <v>0.004805160045165034</v>
+      </c>
+      <c r="L81">
+        <v>0.003779514507006995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1148339726943079</v>
+        <v>0.1288826514943814</v>
       </c>
       <c r="C82">
-        <v>-0.02547367253171071</v>
+        <v>0.04635943667892518</v>
       </c>
       <c r="D82">
-        <v>0.07046759211000574</v>
+        <v>-0.04168841256174501</v>
       </c>
       <c r="E82">
-        <v>0.1025413006078571</v>
+        <v>0.02128061278590753</v>
       </c>
       <c r="F82">
-        <v>-0.2227449386583394</v>
+        <v>-0.04662774144386402</v>
       </c>
       <c r="G82">
-        <v>0.005215769860438221</v>
+        <v>0.150588034232436</v>
       </c>
       <c r="H82">
-        <v>-0.1038252430498673</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.1446951069611177</v>
+      </c>
+      <c r="I82">
+        <v>-0.1797105813329292</v>
+      </c>
+      <c r="J82">
+        <v>-0.03156578031972532</v>
+      </c>
+      <c r="K82">
+        <v>-0.06490102317848508</v>
+      </c>
+      <c r="L82">
+        <v>0.06600591460073459</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.0807837935643564</v>
+        <v>0.08684906924666991</v>
       </c>
       <c r="C83">
-        <v>-0.06169236428758514</v>
+        <v>0.1158207444797586</v>
       </c>
       <c r="D83">
-        <v>0.0439642109368399</v>
+        <v>-0.01983149130011002</v>
       </c>
       <c r="E83">
-        <v>0.001074689181116622</v>
+        <v>0.01358617844239037</v>
       </c>
       <c r="F83">
-        <v>0.07400863139419663</v>
+        <v>0.07924558707966146</v>
       </c>
       <c r="G83">
-        <v>-0.0411006512551849</v>
+        <v>0.02750726629102446</v>
       </c>
       <c r="H83">
-        <v>-0.05812584226159975</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.06407801490703696</v>
+      </c>
+      <c r="I83">
+        <v>0.1785006327083415</v>
+      </c>
+      <c r="J83">
+        <v>0.03482735760695965</v>
+      </c>
+      <c r="K83">
+        <v>-0.1247642039585464</v>
+      </c>
+      <c r="L83">
+        <v>0.1331795294974716</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.0612338562020427</v>
+        <v>0.0566013345300844</v>
       </c>
       <c r="C84">
-        <v>-0.04724241189993511</v>
+        <v>-0.03086232830043124</v>
       </c>
       <c r="D84">
-        <v>-0.05036904385956548</v>
+        <v>-0.007656983165992278</v>
       </c>
       <c r="E84">
-        <v>-0.01422501732151809</v>
+        <v>0.01199393458922308</v>
       </c>
       <c r="F84">
-        <v>-0.06759490427016189</v>
+        <v>0.007977168554587721</v>
       </c>
       <c r="G84">
-        <v>0.1321161810606503</v>
+        <v>-0.1821218656984724</v>
       </c>
       <c r="H84">
-        <v>-0.03194429829575154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.2335813747332808</v>
+      </c>
+      <c r="I84">
+        <v>-0.2183653754402113</v>
+      </c>
+      <c r="J84">
+        <v>0.1537433543967307</v>
+      </c>
+      <c r="K84">
+        <v>-0.2056029535333157</v>
+      </c>
+      <c r="L84">
+        <v>-0.08403798263986326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.09915687778066502</v>
+        <v>0.1120536009298854</v>
       </c>
       <c r="C85">
-        <v>-0.03541454101374797</v>
+        <v>0.04793201798303236</v>
       </c>
       <c r="D85">
-        <v>0.02686369894120506</v>
+        <v>-0.04878586068191756</v>
       </c>
       <c r="E85">
-        <v>0.06000013737323892</v>
+        <v>0.0006700619174652367</v>
       </c>
       <c r="F85">
-        <v>-0.1825135419997476</v>
+        <v>-0.003094297537450938</v>
       </c>
       <c r="G85">
-        <v>-0.02287236246445107</v>
+        <v>0.09692636246310522</v>
       </c>
       <c r="H85">
-        <v>-0.09008001747260995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.1119785759069479</v>
+      </c>
+      <c r="I85">
+        <v>-0.1267536958579775</v>
+      </c>
+      <c r="J85">
+        <v>-0.07353752235390383</v>
+      </c>
+      <c r="K85">
+        <v>0.03705072557667575</v>
+      </c>
+      <c r="L85">
+        <v>0.0008905048846539774</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.05772431864402951</v>
+        <v>0.07805834545931543</v>
       </c>
       <c r="C86">
-        <v>-0.03888135815992571</v>
+        <v>0.03305213421744486</v>
       </c>
       <c r="D86">
-        <v>0.03694946884188573</v>
+        <v>-0.09915867127058574</v>
       </c>
       <c r="E86">
-        <v>-0.03665993962292835</v>
+        <v>-0.03806983604110633</v>
       </c>
       <c r="F86">
-        <v>0.04037143609827403</v>
+        <v>0.05514215887244508</v>
       </c>
       <c r="G86">
-        <v>-0.0420746571453262</v>
+        <v>-0.2962464731055401</v>
       </c>
       <c r="H86">
-        <v>-0.02539208309000057</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.4634554333688687</v>
+      </c>
+      <c r="I86">
+        <v>-0.5056343314842537</v>
+      </c>
+      <c r="J86">
+        <v>-0.3979680995657456</v>
+      </c>
+      <c r="K86">
+        <v>-0.03340613298545116</v>
+      </c>
+      <c r="L86">
+        <v>0.01514209231568633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.09359100765714061</v>
+        <v>0.1117382517041264</v>
       </c>
       <c r="C87">
-        <v>-0.04559759028035951</v>
+        <v>0.09878469990009461</v>
       </c>
       <c r="D87">
-        <v>0.01083723752114019</v>
+        <v>-0.03136450605058255</v>
       </c>
       <c r="E87">
-        <v>-0.06032790361336222</v>
+        <v>-0.02963763813295275</v>
       </c>
       <c r="F87">
-        <v>0.01467821353147944</v>
+        <v>0.1279134954187055</v>
       </c>
       <c r="G87">
-        <v>-0.1338395719021119</v>
+        <v>-0.01281315632480194</v>
       </c>
       <c r="H87">
-        <v>-0.0305634622208738</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.08442260626994298</v>
+      </c>
+      <c r="I87">
+        <v>0.08409782937975165</v>
+      </c>
+      <c r="J87">
+        <v>-0.1307696374350165</v>
+      </c>
+      <c r="K87">
+        <v>0.0516843179982526</v>
+      </c>
+      <c r="L87">
+        <v>0.2788509528313006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.06260955843738426</v>
+        <v>0.05638658491088917</v>
       </c>
       <c r="C88">
-        <v>-0.03417307409250754</v>
+        <v>0.05060793066591677</v>
       </c>
       <c r="D88">
-        <v>0.01955137526439932</v>
+        <v>-0.03028703973622126</v>
       </c>
       <c r="E88">
-        <v>-0.006900648701461527</v>
+        <v>0.02540317262090937</v>
       </c>
       <c r="F88">
-        <v>0.01286151313060891</v>
+        <v>0.03112558117107397</v>
       </c>
       <c r="G88">
-        <v>-0.04042082289639461</v>
+        <v>0.04505551345768232</v>
       </c>
       <c r="H88">
-        <v>-0.01478175996504887</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.008589998578539407</v>
+      </c>
+      <c r="I88">
+        <v>0.02198267967456436</v>
+      </c>
+      <c r="J88">
+        <v>0.0395995672613375</v>
+      </c>
+      <c r="K88">
+        <v>-0.05043334813702221</v>
+      </c>
+      <c r="L88">
+        <v>-0.04407654061196842</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1276844340182547</v>
+        <v>0.1954696312760343</v>
       </c>
       <c r="C89">
-        <v>0.3530901704497476</v>
+        <v>-0.3688036510002952</v>
       </c>
       <c r="D89">
-        <v>0.1045535433751009</v>
+        <v>-0.02651290115444663</v>
       </c>
       <c r="E89">
-        <v>-0.08243906755936657</v>
+        <v>-0.05969037233126391</v>
       </c>
       <c r="F89">
-        <v>0.06188473426682282</v>
+        <v>0.02741565629023808</v>
       </c>
       <c r="G89">
-        <v>-0.01392275598665187</v>
+        <v>-0.02471269161910379</v>
       </c>
       <c r="H89">
-        <v>-0.03713993451308981</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.01243007464542135</v>
+      </c>
+      <c r="I89">
+        <v>0.05148677071736944</v>
+      </c>
+      <c r="J89">
+        <v>0.04217608182539242</v>
+      </c>
+      <c r="K89">
+        <v>-0.05244339129500699</v>
+      </c>
+      <c r="L89">
+        <v>0.01673452057378334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.09718431319800025</v>
+        <v>0.1481654495346483</v>
       </c>
       <c r="C90">
-        <v>0.2789570690705808</v>
+        <v>-0.269817556158595</v>
       </c>
       <c r="D90">
-        <v>0.04492072355758151</v>
+        <v>-0.007971095083885884</v>
       </c>
       <c r="E90">
-        <v>-0.05529332190565821</v>
+        <v>-0.002346862243559268</v>
       </c>
       <c r="F90">
-        <v>0.04955638471373456</v>
+        <v>0.04103159657401077</v>
       </c>
       <c r="G90">
-        <v>-0.08623916715407857</v>
+        <v>0.02232512623182197</v>
       </c>
       <c r="H90">
-        <v>-0.002690625519084163</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.06075046316971167</v>
+      </c>
+      <c r="I90">
+        <v>0.02067335148656075</v>
+      </c>
+      <c r="J90">
+        <v>0.03721100012656069</v>
+      </c>
+      <c r="K90">
+        <v>0.03156289739966436</v>
+      </c>
+      <c r="L90">
+        <v>-0.01914044279862917</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.08085262807152584</v>
+        <v>0.07926752472679194</v>
       </c>
       <c r="C91">
-        <v>-0.02892796216478868</v>
+        <v>0.04837828458449984</v>
       </c>
       <c r="D91">
-        <v>0.01329161423602985</v>
+        <v>-0.02932724572594888</v>
       </c>
       <c r="E91">
-        <v>0.01695915229677392</v>
+        <v>-0.005773002006284654</v>
       </c>
       <c r="F91">
-        <v>-0.08605899547570507</v>
+        <v>-0.02653914372165067</v>
       </c>
       <c r="G91">
-        <v>0.05946432097791952</v>
+        <v>0.0555482941460956</v>
       </c>
       <c r="H91">
-        <v>-0.01314654282410301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.07067237798796032</v>
+      </c>
+      <c r="I91">
+        <v>-0.06812705781094111</v>
+      </c>
+      <c r="J91">
+        <v>-0.01263430449577648</v>
+      </c>
+      <c r="K91">
+        <v>-0.004333882124298617</v>
+      </c>
+      <c r="L91">
+        <v>-0.009926565118849665</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.1044871602459605</v>
+        <v>0.164927590696725</v>
       </c>
       <c r="C92">
-        <v>0.3244486626673554</v>
+        <v>-0.3194093384002683</v>
       </c>
       <c r="D92">
-        <v>0.07958093792684796</v>
+        <v>-0.003554559678172784</v>
       </c>
       <c r="E92">
-        <v>-0.05404741443452719</v>
+        <v>-0.04372442982700028</v>
       </c>
       <c r="F92">
-        <v>-0.00208986684475623</v>
+        <v>0.04933108211099091</v>
       </c>
       <c r="G92">
-        <v>0.09899257823635869</v>
+        <v>0.009701168141306308</v>
       </c>
       <c r="H92">
-        <v>-0.01905513937028095</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.03690180730402931</v>
+      </c>
+      <c r="I92">
+        <v>-0.001475894490495987</v>
+      </c>
+      <c r="J92">
+        <v>0.0459377544462384</v>
+      </c>
+      <c r="K92">
+        <v>-0.04381612067247385</v>
+      </c>
+      <c r="L92">
+        <v>-0.03052633055565276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.1112116280948798</v>
+        <v>0.1552567616030704</v>
       </c>
       <c r="C93">
-        <v>0.2781347745527734</v>
+        <v>-0.2975828424962801</v>
       </c>
       <c r="D93">
-        <v>0.04862287355766229</v>
+        <v>-0.0179366555739116</v>
       </c>
       <c r="E93">
-        <v>-0.02831468304000561</v>
+        <v>0.02198283985928362</v>
       </c>
       <c r="F93">
-        <v>0.02063578132075805</v>
+        <v>0.01699408688149585</v>
       </c>
       <c r="G93">
-        <v>-0.006070725565351574</v>
+        <v>0.01758100395555807</v>
       </c>
       <c r="H93">
-        <v>0.02192366097464373</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.04924574781229915</v>
+      </c>
+      <c r="I93">
+        <v>-0.001102076908425175</v>
+      </c>
+      <c r="J93">
+        <v>-0.02894935592402065</v>
+      </c>
+      <c r="K93">
+        <v>-0.01661750962602274</v>
+      </c>
+      <c r="L93">
+        <v>-0.0058116965530631</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.09549525171983803</v>
+        <v>0.1171291358339172</v>
       </c>
       <c r="C94">
-        <v>-0.05040866400987824</v>
+        <v>0.06516144979459287</v>
       </c>
       <c r="D94">
-        <v>0.005704921822705553</v>
+        <v>-0.02331571159623448</v>
       </c>
       <c r="E94">
-        <v>0.02471312142662927</v>
+        <v>-0.01608938078451877</v>
       </c>
       <c r="F94">
-        <v>-0.1461731589044359</v>
+        <v>-0.04087765555527016</v>
       </c>
       <c r="G94">
-        <v>0.05532078358517836</v>
+        <v>0.08400617870545132</v>
       </c>
       <c r="H94">
-        <v>-0.07393669277445911</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.09770642523206764</v>
+      </c>
+      <c r="I94">
+        <v>-0.09268175447847797</v>
+      </c>
+      <c r="J94">
+        <v>0.0002750426500960595</v>
+      </c>
+      <c r="K94">
+        <v>-0.002586135969437948</v>
+      </c>
+      <c r="L94">
+        <v>-0.05633252143147063</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1244691929031493</v>
+        <v>0.1190767051645463</v>
       </c>
       <c r="C95">
-        <v>-0.07320374257711992</v>
+        <v>0.07047096595557956</v>
       </c>
       <c r="D95">
-        <v>0.05886099218494738</v>
+        <v>-0.0432330321802455</v>
       </c>
       <c r="E95">
-        <v>-0.0561830008261107</v>
+        <v>-0.0313477348698184</v>
       </c>
       <c r="F95">
-        <v>0.06609461168259925</v>
+        <v>0.07248505527431293</v>
       </c>
       <c r="G95">
-        <v>-0.05277677759848724</v>
+        <v>-0.1320596550348827</v>
       </c>
       <c r="H95">
-        <v>-0.1201328711702458</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1982660316329606</v>
+      </c>
+      <c r="I95">
+        <v>0.05664842715922834</v>
+      </c>
+      <c r="J95">
+        <v>-0.1036840917542661</v>
+      </c>
+      <c r="K95">
+        <v>-0.1115229632705834</v>
+      </c>
+      <c r="L95">
+        <v>0.03562227028532624</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.002744820307630936</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.005648447280773115</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.001914305720979975</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.001323318239390065</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.006347754143726073</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.01618763125394493</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.0146418464126977</v>
+      </c>
+      <c r="I96">
+        <v>0.007402667168760628</v>
+      </c>
+      <c r="J96">
+        <v>0.001441254926841076</v>
+      </c>
+      <c r="K96">
+        <v>0.01125636026879571</v>
+      </c>
+      <c r="L96">
+        <v>0.004595383719836381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2227186069248496</v>
+        <v>0.1914941050238493</v>
       </c>
       <c r="C97">
-        <v>0.1325166580626155</v>
+        <v>0.06026198026973327</v>
       </c>
       <c r="D97">
-        <v>-0.9034439909501053</v>
+        <v>0.9333824933934278</v>
       </c>
       <c r="E97">
-        <v>0.0279539627770889</v>
+        <v>0.1608295213618299</v>
       </c>
       <c r="F97">
-        <v>0.09348427393698347</v>
+        <v>-0.07784480905449116</v>
       </c>
       <c r="G97">
-        <v>0.004576933514162056</v>
+        <v>-0.02234717036008236</v>
       </c>
       <c r="H97">
-        <v>0.02992084136986786</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.09780060138427021</v>
+      </c>
+      <c r="I97">
+        <v>-0.04338251971722654</v>
+      </c>
+      <c r="J97">
+        <v>-0.009182096546778496</v>
+      </c>
+      <c r="K97">
+        <v>0.01191750485550285</v>
+      </c>
+      <c r="L97">
+        <v>0.05108614975528009</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.3047501696673452</v>
+        <v>0.2536087313726738</v>
       </c>
       <c r="C98">
-        <v>-0.0991883971578489</v>
+        <v>0.0954981077284307</v>
       </c>
       <c r="D98">
-        <v>0.09852043776554503</v>
+        <v>-0.04372775192938616</v>
       </c>
       <c r="E98">
-        <v>0.1799709683315685</v>
+        <v>-0.01911274489782717</v>
       </c>
       <c r="F98">
-        <v>0.255662177528292</v>
+        <v>-0.3876039443827709</v>
       </c>
       <c r="G98">
-        <v>0.3449382551586295</v>
+        <v>-0.2088398522809762</v>
       </c>
       <c r="H98">
-        <v>0.3376357688989928</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.05366629388448702</v>
+      </c>
+      <c r="I98">
+        <v>0.2232250272172188</v>
+      </c>
+      <c r="J98">
+        <v>0.06180665059475279</v>
+      </c>
+      <c r="K98">
+        <v>-0.3860548996563226</v>
+      </c>
+      <c r="L98">
+        <v>0.3829302409928503</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.07669832074053561</v>
+        <v>0.06561336720257786</v>
       </c>
       <c r="C99">
-        <v>-0.04846415796209661</v>
+        <v>0.04074110299933607</v>
       </c>
       <c r="D99">
-        <v>0.02047759032435683</v>
+        <v>-0.02885603491838987</v>
       </c>
       <c r="E99">
-        <v>-0.003635368432486152</v>
+        <v>-0.01290254462143455</v>
       </c>
       <c r="F99">
-        <v>-0.02973717046666368</v>
+        <v>-0.009939724501011844</v>
       </c>
       <c r="G99">
-        <v>-0.0441508639438294</v>
+        <v>0.01050868960647347</v>
       </c>
       <c r="H99">
-        <v>-0.005888299214914624</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.02940632188232604</v>
+      </c>
+      <c r="I99">
+        <v>-0.004421440495535724</v>
+      </c>
+      <c r="J99">
+        <v>0.0431801806380564</v>
+      </c>
+      <c r="K99">
+        <v>0.01899300587551183</v>
+      </c>
+      <c r="L99">
+        <v>0.00501543695604943</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.001683667830355125</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.006434862494387236</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.06571183828334223</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.0158331320479504</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.03154411860270331</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.01808238711461912</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.01109135221720037</v>
+      </c>
+      <c r="I100">
+        <v>0.0537862270600405</v>
+      </c>
+      <c r="J100">
+        <v>-0.002555146388620803</v>
+      </c>
+      <c r="K100">
+        <v>-0.06361267126538649</v>
+      </c>
+      <c r="L100">
+        <v>0.02077207477650126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05376935590730555</v>
+        <v>0.03699602729052499</v>
       </c>
       <c r="C101">
-        <v>-0.00443728812454047</v>
+        <v>0.02157754362610825</v>
       </c>
       <c r="D101">
-        <v>0.008311745630706151</v>
+        <v>-0.02054843228086919</v>
       </c>
       <c r="E101">
-        <v>-0.03661947136653555</v>
+        <v>0.003450091868139235</v>
       </c>
       <c r="F101">
-        <v>-0.02208298484263438</v>
+        <v>0.06013058514544205</v>
       </c>
       <c r="G101">
-        <v>-0.003047229826402871</v>
+        <v>0.02735737980421967</v>
       </c>
       <c r="H101">
-        <v>-0.01836367984084957</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.01305736399505694</v>
+      </c>
+      <c r="I101">
+        <v>0.01144007561494533</v>
+      </c>
+      <c r="J101">
+        <v>-0.02424816872501988</v>
+      </c>
+      <c r="K101">
+        <v>-0.1034829387973848</v>
+      </c>
+      <c r="L101">
+        <v>-0.005493140129520751</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4579,22 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4617,22 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4653,18 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
